--- a/Filestoupload/rfqtempelates/rfq_template.xlsx
+++ b/Filestoupload/rfqtempelates/rfq_template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -35,9 +34,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Delivery Deadline</t>
-  </si>
-  <si>
     <t>Specifications</t>
   </si>
   <si>
@@ -78,28 +74,23 @@
   </si>
   <si>
     <t>Urgent requirement</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -132,14 +123,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,30 +425,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="82.408" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,21 +464,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -498,24 +490,24 @@
         <v>15000</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -527,21 +519,19 @@
         <v>8000</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>